--- a/Custom High Performance Parts/Carbon Fiber Bonnet/BOM.xlsx
+++ b/Custom High Performance Parts/Carbon Fiber Bonnet/BOM.xlsx
@@ -67,7 +67,7 @@
     <t>TOOLS</t>
   </si>
   <si>
-    <t>Irwin Countersink Drill Bit 5-Piece Set</t>
+    <t>Countersink Drill Bit 5-Piece Set</t>
   </si>
   <si>
     <t>https://amzn.to/3UHoJZ8</t>
